--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fstl1-Dip2a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fstl1-Dip2a.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>21.30703333333333</v>
+        <v>33.22094666666666</v>
       </c>
       <c r="H2">
-        <v>63.9211</v>
+        <v>99.66283999999999</v>
       </c>
       <c r="I2">
-        <v>0.03229214412626457</v>
+        <v>0.04806943331163595</v>
       </c>
       <c r="J2">
-        <v>0.03229214412626456</v>
+        <v>0.04806943331163595</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.971009</v>
+        <v>10.97489366666667</v>
       </c>
       <c r="N2">
-        <v>29.913027</v>
+        <v>32.924681</v>
       </c>
       <c r="O2">
-        <v>0.3700016197528959</v>
+        <v>0.3804091425755969</v>
       </c>
       <c r="P2">
-        <v>0.3700016197528959</v>
+        <v>0.3804091425755969</v>
       </c>
       <c r="Q2">
-        <v>212.4526211299667</v>
+        <v>364.596357172671</v>
       </c>
       <c r="R2">
-        <v>1912.0735901697</v>
+        <v>3281.367214554039</v>
       </c>
       <c r="S2">
-        <v>0.01194814563201185</v>
+        <v>0.01828605191017427</v>
       </c>
       <c r="T2">
-        <v>0.01194814563201185</v>
+        <v>0.01828605191017427</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>21.30703333333333</v>
+        <v>33.22094666666666</v>
       </c>
       <c r="H3">
-        <v>63.9211</v>
+        <v>99.66283999999999</v>
       </c>
       <c r="I3">
-        <v>0.03229214412626457</v>
+        <v>0.04806943331163595</v>
       </c>
       <c r="J3">
-        <v>0.03229214412626456</v>
+        <v>0.04806943331163595</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>30.125653</v>
       </c>
       <c r="O3">
-        <v>0.3726316432674529</v>
+        <v>0.34806939594221</v>
       </c>
       <c r="P3">
-        <v>0.3726316432674529</v>
+        <v>0.34806939594221</v>
       </c>
       <c r="Q3">
-        <v>213.9627642198111</v>
+        <v>333.6009038705022</v>
       </c>
       <c r="R3">
-        <v>1925.6648779783</v>
+        <v>3002.40813483452</v>
       </c>
       <c r="S3">
-        <v>0.01203307473039939</v>
+        <v>0.01673149861606548</v>
       </c>
       <c r="T3">
-        <v>0.01203307473039939</v>
+        <v>0.01673149861606548</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>21.30703333333333</v>
+        <v>33.22094666666666</v>
       </c>
       <c r="H4">
-        <v>63.9211</v>
+        <v>99.66283999999999</v>
       </c>
       <c r="I4">
-        <v>0.03229214412626457</v>
+        <v>0.04806943331163595</v>
       </c>
       <c r="J4">
-        <v>0.03229214412626456</v>
+        <v>0.04806943331163595</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.768749000000001</v>
+        <v>5.513093333333334</v>
       </c>
       <c r="N4">
-        <v>14.306247</v>
+        <v>16.53928</v>
       </c>
       <c r="O4">
-        <v>0.1769575029162046</v>
+        <v>0.1910935241443256</v>
       </c>
       <c r="P4">
-        <v>0.1769575029162046</v>
+        <v>0.1910935241443256</v>
       </c>
       <c r="Q4">
-        <v>101.6078939013</v>
+        <v>183.1501795950222</v>
       </c>
       <c r="R4">
-        <v>914.4710451116999</v>
+        <v>1648.3516163552</v>
       </c>
       <c r="S4">
-        <v>0.005714337188393963</v>
+        <v>0.009185757415141155</v>
       </c>
       <c r="T4">
-        <v>0.005714337188393962</v>
+        <v>0.009185757415141155</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>21.30703333333333</v>
+        <v>33.22094666666666</v>
       </c>
       <c r="H5">
-        <v>63.9211</v>
+        <v>99.66283999999999</v>
       </c>
       <c r="I5">
-        <v>0.03229214412626457</v>
+        <v>0.04806943331163595</v>
       </c>
       <c r="J5">
-        <v>0.03229214412626456</v>
+        <v>0.04806943331163595</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.166912666666667</v>
+        <v>2.320365</v>
       </c>
       <c r="N5">
-        <v>6.500738</v>
+        <v>6.961094999999999</v>
       </c>
       <c r="O5">
-        <v>0.0804092340634467</v>
+        <v>0.08042793733786743</v>
       </c>
       <c r="P5">
-        <v>0.0804092340634467</v>
+        <v>0.08042793733786745</v>
       </c>
       <c r="Q5">
-        <v>46.17048041908889</v>
+        <v>77.08472191219998</v>
       </c>
       <c r="R5">
-        <v>415.5343237718</v>
+        <v>693.7624972097999</v>
       </c>
       <c r="S5">
-        <v>0.002596586575459363</v>
+        <v>0.003866125370255054</v>
       </c>
       <c r="T5">
-        <v>0.002596586575459363</v>
+        <v>0.003866125370255055</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>614.8671876666666</v>
+        <v>614.8671876666667</v>
       </c>
       <c r="H6">
         <v>1844.601563</v>
       </c>
       <c r="I6">
-        <v>0.9318697508010483</v>
+        <v>0.8896891942791112</v>
       </c>
       <c r="J6">
-        <v>0.9318697508010483</v>
+        <v>0.8896891942791111</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.971009</v>
+        <v>10.97489366666667</v>
       </c>
       <c r="N6">
-        <v>29.913027</v>
+        <v>32.924681</v>
       </c>
       <c r="O6">
-        <v>0.3700016197528959</v>
+        <v>0.3804091425755969</v>
       </c>
       <c r="P6">
-        <v>0.3700016197528959</v>
+        <v>0.3804091425755969</v>
       </c>
       <c r="Q6">
-        <v>6130.846262029022</v>
+        <v>6748.102003764046</v>
       </c>
       <c r="R6">
-        <v>55177.6163582612</v>
+        <v>60732.91803387641</v>
       </c>
       <c r="S6">
-        <v>0.3447933171951153</v>
+        <v>0.3384459035544903</v>
       </c>
       <c r="T6">
-        <v>0.3447933171951153</v>
+        <v>0.3384459035544903</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>614.8671876666666</v>
+        <v>614.8671876666667</v>
       </c>
       <c r="H7">
         <v>1844.601563</v>
       </c>
       <c r="I7">
-        <v>0.9318697508010483</v>
+        <v>0.8896891942791112</v>
       </c>
       <c r="J7">
-        <v>0.9318697508010483</v>
+        <v>0.8896891942791111</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>30.125653</v>
       </c>
       <c r="O7">
-        <v>0.3726316432674529</v>
+        <v>0.34806939594221</v>
       </c>
       <c r="P7">
-        <v>0.3726316432674529</v>
+        <v>0.34806939594221</v>
       </c>
       <c r="Q7">
         <v>6174.425178910627</v>
       </c>
       <c r="R7">
-        <v>55569.82661019564</v>
+        <v>55569.82661019565</v>
       </c>
       <c r="S7">
-        <v>0.3472441565522265</v>
+        <v>0.3096735804290418</v>
       </c>
       <c r="T7">
-        <v>0.3472441565522265</v>
+        <v>0.3096735804290418</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>614.8671876666666</v>
+        <v>614.8671876666667</v>
       </c>
       <c r="H8">
         <v>1844.601563</v>
       </c>
       <c r="I8">
-        <v>0.9318697508010483</v>
+        <v>0.8896891942791112</v>
       </c>
       <c r="J8">
-        <v>0.9318697508010483</v>
+        <v>0.8896891942791111</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.768749000000001</v>
+        <v>5.513093333333334</v>
       </c>
       <c r="N8">
-        <v>14.306247</v>
+        <v>16.53928</v>
       </c>
       <c r="O8">
-        <v>0.1769575029162046</v>
+        <v>0.1910935241443256</v>
       </c>
       <c r="P8">
-        <v>0.1769575029162046</v>
+        <v>0.1910935241443256</v>
       </c>
       <c r="Q8">
-        <v>2932.147286318229</v>
+        <v>3389.820193210516</v>
       </c>
       <c r="R8">
-        <v>26389.32557686406</v>
+        <v>30508.38173889464</v>
       </c>
       <c r="S8">
-        <v>0.1649013441448994</v>
+        <v>0.170013843527921</v>
       </c>
       <c r="T8">
-        <v>0.1649013441448994</v>
+        <v>0.1700138435279209</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>614.8671876666666</v>
+        <v>614.8671876666667</v>
       </c>
       <c r="H9">
         <v>1844.601563</v>
       </c>
       <c r="I9">
-        <v>0.9318697508010483</v>
+        <v>0.8896891942791112</v>
       </c>
       <c r="J9">
-        <v>0.9318697508010483</v>
+        <v>0.8896891942791111</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.166912666666667</v>
+        <v>2.320365</v>
       </c>
       <c r="N9">
-        <v>6.500738</v>
+        <v>6.961094999999999</v>
       </c>
       <c r="O9">
-        <v>0.0804092340634467</v>
+        <v>0.08042793733786743</v>
       </c>
       <c r="P9">
-        <v>0.0804092340634467</v>
+        <v>0.08042793733786745</v>
       </c>
       <c r="Q9">
-        <v>1332.36349727261</v>
+        <v>1426.716301910165</v>
       </c>
       <c r="R9">
-        <v>11991.27147545349</v>
+        <v>12840.44671719149</v>
       </c>
       <c r="S9">
-        <v>0.07493093290880724</v>
+        <v>0.07155586676765811</v>
       </c>
       <c r="T9">
-        <v>0.07493093290880724</v>
+        <v>0.07155586676765813</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>23.31917566666667</v>
+        <v>42.195614</v>
       </c>
       <c r="H10">
-        <v>69.957527</v>
+        <v>126.586842</v>
       </c>
       <c r="I10">
-        <v>0.03534167191429817</v>
+        <v>0.06105543209133513</v>
       </c>
       <c r="J10">
-        <v>0.03534167191429817</v>
+        <v>0.06105543209133512</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.971009</v>
+        <v>10.97489366666667</v>
       </c>
       <c r="N10">
-        <v>29.913027</v>
+        <v>32.924681</v>
       </c>
       <c r="O10">
-        <v>0.3700016197528959</v>
+        <v>0.3804091425755969</v>
       </c>
       <c r="P10">
-        <v>0.3700016197528959</v>
+        <v>0.3804091425755969</v>
       </c>
       <c r="Q10">
-        <v>232.5157104449143</v>
+        <v>463.0923768497113</v>
       </c>
       <c r="R10">
-        <v>2092.641394004229</v>
+        <v>4167.831391647402</v>
       </c>
       <c r="S10">
-        <v>0.01307647585306575</v>
+        <v>0.02322604457144738</v>
       </c>
       <c r="T10">
-        <v>0.01307647585306575</v>
+        <v>0.02322604457144738</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>23.31917566666667</v>
+        <v>42.195614</v>
       </c>
       <c r="H11">
-        <v>69.957527</v>
+        <v>126.586842</v>
       </c>
       <c r="I11">
-        <v>0.03534167191429817</v>
+        <v>0.06105543209133513</v>
       </c>
       <c r="J11">
-        <v>0.03534167191429817</v>
+        <v>0.06105543209133512</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>30.125653</v>
       </c>
       <c r="O11">
-        <v>0.3726316432674529</v>
+        <v>0.34806939594221</v>
       </c>
       <c r="P11">
-        <v>0.3726316432674529</v>
+        <v>0.34806939594221</v>
       </c>
       <c r="Q11">
-        <v>234.1684647933479</v>
+        <v>423.7234751619807</v>
       </c>
       <c r="R11">
-        <v>2107.516183140131</v>
+        <v>3813.511276457826</v>
       </c>
       <c r="S11">
-        <v>0.01316942528124412</v>
+        <v>0.02125152736702164</v>
       </c>
       <c r="T11">
-        <v>0.01316942528124412</v>
+        <v>0.02125152736702164</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>23.31917566666667</v>
+        <v>42.195614</v>
       </c>
       <c r="H12">
-        <v>69.957527</v>
+        <v>126.586842</v>
       </c>
       <c r="I12">
-        <v>0.03534167191429817</v>
+        <v>0.06105543209133513</v>
       </c>
       <c r="J12">
-        <v>0.03534167191429817</v>
+        <v>0.06105543209133512</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.768749000000001</v>
+        <v>5.513093333333334</v>
       </c>
       <c r="N12">
-        <v>14.306247</v>
+        <v>16.53928</v>
       </c>
       <c r="O12">
-        <v>0.1769575029162046</v>
+        <v>0.1910935241443256</v>
       </c>
       <c r="P12">
-        <v>0.1769575029162046</v>
+        <v>0.1910935241443256</v>
       </c>
       <c r="Q12">
-        <v>111.203295641241</v>
+        <v>232.6283582393067</v>
       </c>
       <c r="R12">
-        <v>1000.829660771169</v>
+        <v>2093.65522415376</v>
       </c>
       <c r="S12">
-        <v>0.006253974010837966</v>
+        <v>0.01166729768648778</v>
       </c>
       <c r="T12">
-        <v>0.006253974010837966</v>
+        <v>0.01166729768648778</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>23.31917566666667</v>
+        <v>42.195614</v>
       </c>
       <c r="H13">
-        <v>69.957527</v>
+        <v>126.586842</v>
       </c>
       <c r="I13">
-        <v>0.03534167191429817</v>
+        <v>0.06105543209133513</v>
       </c>
       <c r="J13">
-        <v>0.03534167191429817</v>
+        <v>0.06105543209133512</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.166912666666667</v>
+        <v>2.320365</v>
       </c>
       <c r="N13">
-        <v>6.500738</v>
+        <v>6.961094999999999</v>
       </c>
       <c r="O13">
-        <v>0.0804092340634467</v>
+        <v>0.08042793733786743</v>
       </c>
       <c r="P13">
-        <v>0.0804092340634467</v>
+        <v>0.08042793733786745</v>
       </c>
       <c r="Q13">
-        <v>50.53061712832511</v>
+        <v>97.90922587910998</v>
       </c>
       <c r="R13">
-        <v>454.775554154926</v>
+        <v>881.1830329119898</v>
       </c>
       <c r="S13">
-        <v>0.002841796769150342</v>
+        <v>0.004910562466378322</v>
       </c>
       <c r="T13">
-        <v>0.002841796769150342</v>
+        <v>0.004910562466378323</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.327557</v>
+        <v>0.8196073333333334</v>
       </c>
       <c r="H14">
-        <v>0.982671</v>
+        <v>2.458822</v>
       </c>
       <c r="I14">
-        <v>0.0004964331583890222</v>
+        <v>0.001185940317917725</v>
       </c>
       <c r="J14">
-        <v>0.0004964331583890222</v>
+        <v>0.001185940317917725</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>9.971009</v>
+        <v>10.97489366666667</v>
       </c>
       <c r="N14">
-        <v>29.913027</v>
+        <v>32.924681</v>
       </c>
       <c r="O14">
-        <v>0.3700016197528959</v>
+        <v>0.3804091425755969</v>
       </c>
       <c r="P14">
-        <v>0.3700016197528959</v>
+        <v>0.3804091425755969</v>
       </c>
       <c r="Q14">
-        <v>3.266073795013</v>
+        <v>8.995103331753556</v>
       </c>
       <c r="R14">
-        <v>29.394664155117</v>
+        <v>80.95592998578201</v>
       </c>
       <c r="S14">
-        <v>0.0001836810727029841</v>
+        <v>0.0004511425394849126</v>
       </c>
       <c r="T14">
-        <v>0.0001836810727029841</v>
+        <v>0.0004511425394849126</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.327557</v>
+        <v>0.8196073333333334</v>
       </c>
       <c r="H15">
-        <v>0.982671</v>
+        <v>2.458822</v>
       </c>
       <c r="I15">
-        <v>0.0004964331583890222</v>
+        <v>0.001185940317917725</v>
       </c>
       <c r="J15">
-        <v>0.0004964331583890222</v>
+        <v>0.001185940317917725</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>30.125653</v>
       </c>
       <c r="O15">
-        <v>0.3726316432674529</v>
+        <v>0.34806939594221</v>
       </c>
       <c r="P15">
-        <v>0.3726316432674529</v>
+        <v>0.34806939594221</v>
       </c>
       <c r="Q15">
-        <v>3.289289506573667</v>
+        <v>8.230402040085112</v>
       </c>
       <c r="R15">
-        <v>29.603605559163</v>
+        <v>74.07361836076601</v>
       </c>
       <c r="S15">
-        <v>0.0001849867035829531</v>
+        <v>0.0004127895300811351</v>
       </c>
       <c r="T15">
-        <v>0.0001849867035829531</v>
+        <v>0.0004127895300811351</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.327557</v>
+        <v>0.8196073333333334</v>
       </c>
       <c r="H16">
-        <v>0.982671</v>
+        <v>2.458822</v>
       </c>
       <c r="I16">
-        <v>0.0004964331583890222</v>
+        <v>0.001185940317917725</v>
       </c>
       <c r="J16">
-        <v>0.0004964331583890222</v>
+        <v>0.001185940317917725</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.768749000000001</v>
+        <v>5.513093333333334</v>
       </c>
       <c r="N16">
-        <v>14.306247</v>
+        <v>16.53928</v>
       </c>
       <c r="O16">
-        <v>0.1769575029162046</v>
+        <v>0.1910935241443256</v>
       </c>
       <c r="P16">
-        <v>0.1769575029162046</v>
+        <v>0.1910935241443256</v>
       </c>
       <c r="Q16">
-        <v>1.562037116193</v>
+        <v>4.518571725351111</v>
       </c>
       <c r="R16">
-        <v>14.058334045737</v>
+        <v>40.66714552816001</v>
       </c>
       <c r="S16">
-        <v>8.784757207332606E-05</v>
+        <v>0.00022662551477574</v>
       </c>
       <c r="T16">
-        <v>8.784757207332606E-05</v>
+        <v>0.00022662551477574</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.327557</v>
+        <v>0.8196073333333334</v>
       </c>
       <c r="H17">
-        <v>0.982671</v>
+        <v>2.458822</v>
       </c>
       <c r="I17">
-        <v>0.0004964331583890222</v>
+        <v>0.001185940317917725</v>
       </c>
       <c r="J17">
-        <v>0.0004964331583890222</v>
+        <v>0.001185940317917725</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.166912666666667</v>
+        <v>2.320365</v>
       </c>
       <c r="N17">
-        <v>6.500738</v>
+        <v>6.961094999999999</v>
       </c>
       <c r="O17">
-        <v>0.0804092340634467</v>
+        <v>0.08042793733786743</v>
       </c>
       <c r="P17">
-        <v>0.0804092340634467</v>
+        <v>0.08042793733786745</v>
       </c>
       <c r="Q17">
-        <v>0.7097874123553333</v>
+        <v>1.90178817001</v>
       </c>
       <c r="R17">
-        <v>6.388086711198</v>
+        <v>17.11609353009</v>
       </c>
       <c r="S17">
-        <v>3.991781002975899E-05</v>
+        <v>9.538273357593737E-05</v>
       </c>
       <c r="T17">
-        <v>3.991781002975899E-05</v>
+        <v>9.538273357593738E-05</v>
       </c>
     </row>
   </sheetData>
